--- a/SchedulingData/dynamic12/pso/scheduling2_13.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_13.xlsx
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>210.48</v>
+        <v>242.34</v>
       </c>
       <c r="D2" t="n">
-        <v>250.44</v>
+        <v>288.96</v>
       </c>
       <c r="E2" t="n">
-        <v>16.596</v>
+        <v>11.264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249.38</v>
+        <v>201.26</v>
       </c>
       <c r="D3" t="n">
-        <v>286.5</v>
+        <v>261.76</v>
       </c>
       <c r="E3" t="n">
-        <v>13.04</v>
+        <v>13.044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>237.34</v>
+        <v>240.98</v>
       </c>
       <c r="D4" t="n">
-        <v>268.54</v>
+        <v>301.36</v>
       </c>
       <c r="E4" t="n">
-        <v>13.796</v>
+        <v>11.664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>222.52</v>
+        <v>288.96</v>
       </c>
       <c r="D5" t="n">
-        <v>292.42</v>
+        <v>348.32</v>
       </c>
       <c r="E5" t="n">
-        <v>11.408</v>
+        <v>8.448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>268.54</v>
+        <v>348.32</v>
       </c>
       <c r="D6" t="n">
-        <v>315.08</v>
+        <v>400.28</v>
       </c>
       <c r="E6" t="n">
-        <v>10.772</v>
+        <v>5.852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>214.58</v>
+        <v>301.36</v>
       </c>
       <c r="D7" t="n">
-        <v>268.02</v>
+        <v>341.32</v>
       </c>
       <c r="E7" t="n">
-        <v>14.868</v>
+        <v>9.288</v>
       </c>
     </row>
     <row r="8">
@@ -580,93 +580,93 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>268.02</v>
+        <v>241.66</v>
       </c>
       <c r="D8" t="n">
-        <v>330.52</v>
+        <v>290.1</v>
       </c>
       <c r="E8" t="n">
-        <v>11.748</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>315.08</v>
+        <v>261.76</v>
       </c>
       <c r="D9" t="n">
-        <v>364.98</v>
+        <v>333.46</v>
       </c>
       <c r="E9" t="n">
-        <v>7.412</v>
+        <v>9.964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>286.5</v>
+        <v>238.28</v>
       </c>
       <c r="D10" t="n">
-        <v>336.14</v>
+        <v>308.78</v>
       </c>
       <c r="E10" t="n">
-        <v>9.696</v>
+        <v>14.312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>336.14</v>
+        <v>333.46</v>
       </c>
       <c r="D11" t="n">
-        <v>402.48</v>
+        <v>396.06</v>
       </c>
       <c r="E11" t="n">
-        <v>5.692</v>
+        <v>6.304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>330.52</v>
+        <v>261.8</v>
       </c>
       <c r="D12" t="n">
-        <v>373.22</v>
+        <v>328.42</v>
       </c>
       <c r="E12" t="n">
-        <v>9.587999999999999</v>
+        <v>13.188</v>
       </c>
     </row>
     <row r="13">
@@ -675,93 +675,93 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>292.42</v>
+        <v>396.06</v>
       </c>
       <c r="D13" t="n">
-        <v>351.18</v>
+        <v>440.48</v>
       </c>
       <c r="E13" t="n">
-        <v>8.132</v>
+        <v>3.972</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>250.44</v>
+        <v>328.42</v>
       </c>
       <c r="D14" t="n">
-        <v>281.04</v>
+        <v>378.22</v>
       </c>
       <c r="E14" t="n">
-        <v>14.176</v>
+        <v>9.827999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>236.94</v>
+        <v>341.32</v>
       </c>
       <c r="D15" t="n">
-        <v>296</v>
+        <v>382.86</v>
       </c>
       <c r="E15" t="n">
-        <v>13.02</v>
+        <v>6.264</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>351.18</v>
+        <v>308.78</v>
       </c>
       <c r="D16" t="n">
-        <v>423.28</v>
+        <v>357.22</v>
       </c>
       <c r="E16" t="n">
-        <v>5.052</v>
+        <v>11.088</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>402.48</v>
+        <v>378.22</v>
       </c>
       <c r="D17" t="n">
-        <v>438.16</v>
+        <v>430.12</v>
       </c>
       <c r="E17" t="n">
-        <v>2.764</v>
+        <v>6.748</v>
       </c>
     </row>
     <row r="18">
@@ -770,188 +770,188 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>364.98</v>
+        <v>430.12</v>
       </c>
       <c r="D18" t="n">
-        <v>451.78</v>
+        <v>491.36</v>
       </c>
       <c r="E18" t="n">
-        <v>4.332</v>
+        <v>3.724</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>281.04</v>
+        <v>290.1</v>
       </c>
       <c r="D19" t="n">
-        <v>340.36</v>
+        <v>331.5</v>
       </c>
       <c r="E19" t="n">
-        <v>11.844</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>340.36</v>
+        <v>400.28</v>
       </c>
       <c r="D20" t="n">
-        <v>393.66</v>
+        <v>460.28</v>
       </c>
       <c r="E20" t="n">
-        <v>7.644</v>
+        <v>3.432</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>296</v>
+        <v>331.5</v>
       </c>
       <c r="D21" t="n">
-        <v>345.14</v>
+        <v>403.1</v>
       </c>
       <c r="E21" t="n">
-        <v>9.236000000000001</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>423.28</v>
+        <v>382.86</v>
       </c>
       <c r="D22" t="n">
-        <v>499.62</v>
+        <v>431.78</v>
       </c>
       <c r="E22" t="n">
-        <v>2.028</v>
+        <v>3.492</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>345.14</v>
+        <v>357.22</v>
       </c>
       <c r="D23" t="n">
-        <v>413.14</v>
+        <v>425.32</v>
       </c>
       <c r="E23" t="n">
-        <v>5.576</v>
+        <v>7.368</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>393.66</v>
+        <v>431.78</v>
       </c>
       <c r="D24" t="n">
-        <v>455.66</v>
+        <v>469.58</v>
       </c>
       <c r="E24" t="n">
-        <v>4.564</v>
+        <v>1.332</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>373.22</v>
+        <v>469.58</v>
       </c>
       <c r="D25" t="n">
-        <v>427.64</v>
+        <v>538.8200000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>7.256</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>427.64</v>
+        <v>425.32</v>
       </c>
       <c r="D26" t="n">
-        <v>476.88</v>
+        <v>517.62</v>
       </c>
       <c r="E26" t="n">
-        <v>3.952</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>413.14</v>
+        <v>403.1</v>
       </c>
       <c r="D27" t="n">
-        <v>470.54</v>
+        <v>447.72</v>
       </c>
       <c r="E27" t="n">
-        <v>3.416</v>
+        <v>3.688</v>
       </c>
     </row>
   </sheetData>
